--- a/Team_01/SDP-SAP-Project5.xlsx
+++ b/Team_01/SDP-SAP-Project5.xlsx
@@ -5,21 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raghu\Documents\ASU\Spring20\SER516\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\parik\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E17DD587-ADE8-40B4-B201-C21C4FEDFF9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A932AE08-90FA-4D1A-A199-8803338437D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$D$2:$D$24</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$E$1</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$E$2:$E$24</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
   <si>
     <t>Classes</t>
   </si>
@@ -152,6 +147,12 @@
   </si>
   <si>
     <t>SDP for A:</t>
+  </si>
+  <si>
+    <t>Strategic Technical debt: VerticalBar and Dot were strategically put inside Icons because all child classes of Icons use these properties. Instead of each class separately creating objects and using these properties, which will create a mess in design, we decided to put these two classes in Icons</t>
+  </si>
+  <si>
+    <t>FileManager, NodeCompiler, OptionsPane, ToolBar, Workspace classes unavoidable technical debt. These classes are being used in Main class.</t>
   </si>
 </sst>
 </file>
@@ -1726,18 +1727,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S24"/>
+  <dimension ref="A1:S29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V9" sqref="V9"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
-    <col min="18" max="18" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.85546875" customWidth="1"/>
+    <col min="1" max="1" width="22.125" customWidth="1"/>
+    <col min="18" max="18" width="32.25" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.25" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
@@ -2349,6 +2351,16 @@
         <v>31</v>
       </c>
       <c r="H24" s="2"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>39</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
